--- a/Inputdateien/Input_Balingen_alternativ.xlsx
+++ b/Inputdateien/Input_Balingen_alternativ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A572F-8A7B-4C2D-AB05-FC23955F6742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E86B8-3F13-4EE1-A12D-085C480521CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{7F28F3D8-D0BE-4DDF-9378-0062E5CA07A9}"/>
   </bookViews>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5373E77D-BE44-47A8-9C7B-8B5971044521}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
     <col min="9" max="9" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>4.29</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="B39" s="6">
         <v>15</v>
@@ -1824,7 +1824,7 @@
         <v>Ja</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
